--- a/project_orders.xlsx
+++ b/project_orders.xlsx
@@ -87,7 +87,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +98,12 @@
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -132,7 +138,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -155,11 +161,18 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -167,17 +180,20 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -492,12 +508,12 @@
   <cols>
     <col min="1" max="1" style="7" width="28.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="7" width="1.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="7" width="34.57642857142857" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="7" width="35.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="23.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="41.25" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
